--- a/data/trans_dic/P32E$bar_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Habitat-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -874,7 +874,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$bar_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Habitat-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.796445794370704</v>
+        <v>0.7964457943707038</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6435253308314686</v>
+        <v>0.6435253308314685</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7596174627011117</v>
+        <v>0.7596174627011116</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6194082067917824</v>
+        <v>0.6381777594013062</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3431316144417081</v>
+        <v>0.3088385515365036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.607583730704962</v>
+        <v>0.6079068389361099</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9111028020890227</v>
+        <v>0.9053044862574603</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8741073102112784</v>
+        <v>0.8632777684705645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8630740721814633</v>
+        <v>0.8698859166675788</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.5887595614573087</v>
+        <v>0.5887595614573089</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8825348565568001</v>
+        <v>0.8825348565567999</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7043263569178458</v>
+        <v>0.7043263569178457</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3930846759639645</v>
+        <v>0.3807888534428646</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.742141738744441</v>
+        <v>0.7396086756500944</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5549312275589385</v>
+        <v>0.5621686004946173</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7725400928626606</v>
+        <v>0.7627620071175362</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9598145385194876</v>
+        <v>0.9579282957221291</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8138268264952321</v>
+        <v>0.8272650750555685</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.7395851305660168</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4979604018101922</v>
+        <v>0.4979604018101923</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2467890052917286</v>
+        <v>0.2435115504582178</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2580912792677264</v>
+        <v>0.2457493981940312</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.30636102636934</v>
+        <v>0.3238319025547776</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6685277107140775</v>
+        <v>0.6448569638351511</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6692543658527055</v>
+        <v>0.6877477436022964</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7277138775915923</v>
+        <v>0.7277138775915925</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5690210371540841</v>
+        <v>0.5690210371540839</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6843188804155668</v>
+        <v>0.6843188804155669</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5945362070067359</v>
+        <v>0.6005233972019863</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3133337307338262</v>
+        <v>0.3247190613764808</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5659559188283151</v>
+        <v>0.5360141093727931</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8432697902412214</v>
+        <v>0.8348461457889208</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7791170248085014</v>
+        <v>0.7772818434503903</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7815071367907468</v>
+        <v>0.7741041843697373</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6569461383875637</v>
+        <v>0.6569461383875638</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.7215597749616647</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6753240138503815</v>
+        <v>0.6753240138503817</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5688369954773019</v>
+        <v>0.5646761471249696</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5924122426344444</v>
+        <v>0.5864346551589851</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6062485960240516</v>
+        <v>0.5980394547020849</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7404801971267296</v>
+        <v>0.7307816365087456</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8202489970531842</v>
+        <v>0.8127950327162022</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7446589097773142</v>
+        <v>0.7396745653167198</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21666</v>
+        <v>22323</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3807</v>
+        <v>3427</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27994</v>
+        <v>28009</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31869</v>
+        <v>31667</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9699</v>
+        <v>9579</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39766</v>
+        <v>40080</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15271</v>
+        <v>14793</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18697</v>
+        <v>18633</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>35539</v>
+        <v>36002</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30012</v>
+        <v>29633</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24181</v>
+        <v>24133</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>52119</v>
+        <v>52980</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7437</v>
+        <v>7338</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1613</v>
+        <v>1535</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11147</v>
+        <v>11782</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20147</v>
+        <v>19433</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>6248</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24350</v>
+        <v>25023</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>34197</v>
+        <v>34541</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6783</v>
+        <v>7030</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44805</v>
+        <v>42435</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48503</v>
+        <v>48019</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16866</v>
+        <v>16827</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>61870</v>
+        <v>61284</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>91857</v>
+        <v>91185</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38025</v>
+        <v>37641</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>136811</v>
+        <v>134958</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>119574</v>
+        <v>118008</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>52649</v>
+        <v>52170</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>168046</v>
+        <v>166921</v>
       </c>
     </row>
     <row r="24">
